--- a/ProbEstat_aula09.xlsx
+++ b/ProbEstat_aula09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Desktop\probability-and-statistics-II-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D7FED-3131-4955-A743-B94CBFD641FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A012DB-97F0-4DBE-878E-687B59866451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{8E0AE2A3-9541-451D-9CBA-713CFAF86553}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{8E0AE2A3-9541-451D-9CBA-713CFAF86553}"/>
   </bookViews>
   <sheets>
     <sheet name="Acidentes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>Dias da semana</t>
   </si>
@@ -235,10 +235,25 @@
     <t>p-valor</t>
   </si>
   <si>
-    <t>? Inv quiqua</t>
-  </si>
-  <si>
-    <t>??????</t>
+    <t>Regra de três</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Dependem do grau de experiência de quem  responde</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Esperado</t>
+  </si>
+  <si>
+    <t>Esperado (calculado)</t>
+  </si>
+  <si>
+    <t>Não tem significância, &lt; 0,05</t>
   </si>
 </sst>
 </file>
@@ -312,7 +327,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -645,6 +666,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -658,10 +691,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F06C673-A3D7-4344-A591-283AD6FF7CB5}">
-  <dimension ref="B3:N11"/>
+  <dimension ref="B3:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,14 +1303,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1356,7 +1397,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C8">
@@ -1365,19 +1406,40 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="49">
         <f>_xlfn.CHISQ.TEST(C5:I5,C6:I6)</f>
         <v>6.196880441665896E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="17"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>_xlfn.CHISQ.INV(0.05,C8)</f>
+        <v>1.6353828943279065</v>
+      </c>
+      <c r="D12">
+        <f>_xlfn.CHISQ.INV.RT(0.05,C8)</f>
+        <v>12.591587243743978</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="48">
+        <f>_xlfn.CHISQ.TEST(C5:I5,C6:I6)</f>
+        <v>6.196880441665896E-2</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>_xlfn.CHISQ.INV(C13,C8)</f>
+        <v>1.7891767623818118</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.CHISQ.INV.RT(C13,C8)</f>
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1393,7 +1455,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,27 +1465,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1459,6 +1521,13 @@
       <c r="F5" s="9">
         <v>159</v>
       </c>
+      <c r="I5" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="52">
+        <f>_xlfn.CHISQ.TEST(C5:E8,C13:E16)</f>
+        <v>7.478972103908567E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -1527,6 +1596,11 @@
       </c>
       <c r="F9" s="9">
         <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1647,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9C31A5-61A5-4407-AEE7-6DBD77BAAA78}">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,22 +1735,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>27</v>
@@ -1733,77 +1812,99 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="39" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="19">
-        <f>B14*D12/D14</f>
-        <v>15.3841059602649</v>
-      </c>
-      <c r="C12" s="19">
-        <f>D12*C14/D14</f>
-        <v>85.615894039735096</v>
-      </c>
-      <c r="D12" s="20">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19">
+        <f>B15*D13/D15</f>
+        <v>15.3841059602649</v>
+      </c>
+      <c r="C13" s="19">
+        <f>D13*C15/D15</f>
+        <v>85.615894039735096</v>
+      </c>
+      <c r="D13" s="20">
+        <v>101</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="19">
-        <f>B14*D13/D14</f>
+      <c r="B14" s="19">
+        <f>B15*D14/D15</f>
         <v>53.615894039735096</v>
       </c>
-      <c r="C13" s="19">
-        <f>D13*C14/D14</f>
+      <c r="C14" s="19">
+        <f>D14*C15/D15</f>
         <v>298.38410596026489</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D14" s="20">
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B15" s="20">
         <v>69</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C15" s="20">
         <v>384</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D15" s="20">
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="45" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>58</v>
       </c>
+      <c r="C17" s="49">
+        <f>_xlfn.CHISQ.TEST(B7:C8,B13:C14)</f>
+        <v>1.0514819632987149E-14</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D17:F18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1812,51 +1913,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADAB0BB-4D15-4055-A3E7-4EBC45F32B19}">
-  <dimension ref="A2:M180"/>
+  <dimension ref="A2:U180"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="169.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:21" ht="169.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="P6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
@@ -1873,8 +1984,24 @@
       <c r="G7" s="23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>40</v>
       </c>
@@ -1893,8 +2020,30 @@
       <c r="G8" s="16">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="25">
+        <f>Q11*U8/U11</f>
+        <v>12.709876543209877</v>
+      </c>
+      <c r="R8" s="25">
+        <f>R11*U8/U11</f>
+        <v>8.0555555555555554</v>
+      </c>
+      <c r="S8" s="25">
+        <f>S11*U8/U11</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="T8" s="25">
+        <f>T11*U8/U11</f>
+        <v>3.4012345679012346</v>
+      </c>
+      <c r="U8" s="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>41</v>
       </c>
@@ -1913,8 +2062,30 @@
       <c r="G9" s="16">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="25">
+        <f>Q11*U9/U11</f>
+        <v>31.117283950617285</v>
+      </c>
+      <c r="R9" s="25">
+        <f>R11*U9/U11</f>
+        <v>19.722222222222221</v>
+      </c>
+      <c r="S9" s="25">
+        <f>S11*U9/U11</f>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="T9" s="25">
+        <f>T11*U9/U11</f>
+        <v>8.3271604938271597</v>
+      </c>
+      <c r="U9" s="16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>42</v>
       </c>
@@ -1933,8 +2104,30 @@
       <c r="G10" s="16">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="25">
+        <f>Q11*U10/U11</f>
+        <v>27.172839506172838</v>
+      </c>
+      <c r="R10" s="25">
+        <f>R11*U10/U11</f>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="S10" s="25">
+        <f>S11*U10/U11</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="T10" s="25">
+        <f>T11*U10/U11</f>
+        <v>7.2716049382716053</v>
+      </c>
+      <c r="U10" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>43</v>
       </c>
@@ -1953,22 +2146,52 @@
       <c r="G11" s="16">
         <v>162</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>71</v>
+      </c>
+      <c r="R11" s="16">
+        <v>45</v>
+      </c>
+      <c r="S11" s="16">
+        <v>27</v>
+      </c>
+      <c r="T11" s="16">
+        <v>19</v>
+      </c>
+      <c r="U11" s="16">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P13" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13">
+        <f>_xlfn.CHISQ.TEST(C8:F10,Q8:T10)</f>
+        <v>0.51320961856298042</v>
+      </c>
+      <c r="R13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="43" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
@@ -5561,11 +5784,12 @@
       <c r="I180" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="Q6:T6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/ProbEstat_aula09.xlsx
+++ b/ProbEstat_aula09.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Desktop\probability-and-statistics-II-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A012DB-97F0-4DBE-878E-687B59866451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2D485-99DF-45EB-BA5E-EEF1FB93F063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{8E0AE2A3-9541-451D-9CBA-713CFAF86553}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{8E0AE2A3-9541-451D-9CBA-713CFAF86553}"/>
   </bookViews>
   <sheets>
     <sheet name="Acidentes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Dias da semana</t>
   </si>
@@ -255,6 +255,18 @@
   <si>
     <t>Não tem significância, &lt; 0,05</t>
   </si>
+  <si>
+    <t>Se forem independentes, ele tende a média</t>
+  </si>
+  <si>
+    <t>&gt; 0,05</t>
+  </si>
+  <si>
+    <t>Mantém hipotese nula, dados independentes</t>
+  </si>
+  <si>
+    <t>&gt; calculado por nós, usando apenas essa tabela</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +335,19 @@
       <i/>
       <sz val="10"/>
       <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -556,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -678,6 +703,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -685,23 +716,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1323,7 @@
   <dimension ref="B3:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,14 +1335,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1392,7 +1424,7 @@
       <c r="H6" s="5">
         <v>25</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="54">
         <v>25</v>
       </c>
     </row>
@@ -1409,10 +1441,32 @@
       <c r="B9" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="44">
         <f>_xlfn.CHISQ.TEST(C5:I5,C6:I6)</f>
         <v>6.196880441665896E-2</v>
       </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(C5:I5)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="I10" s="55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12">
@@ -1425,7 +1479,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="48">
+      <c r="C13" s="43">
         <f>_xlfn.CHISQ.TEST(C5:I5,C6:I6)</f>
         <v>6.196880441665896E-2</v>
       </c>
@@ -1442,11 +1496,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:I3"/>
+    <mergeCell ref="E10:G11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1454,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B07D046-5714-4C6E-9E80-65AE9A864989}">
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,27 +1521,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1521,10 +1577,10 @@
       <c r="F5" s="9">
         <v>159</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="45">
         <f>_xlfn.CHISQ.TEST(C5:E8,C13:E16)</f>
         <v>7.478972103908567E-3</v>
       </c>
@@ -1635,6 +1691,9 @@
       </c>
       <c r="F13" s="9">
         <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1735,16 +1794,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1885,7 +1944,7 @@
       <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="44">
         <f>_xlfn.CHISQ.TEST(B7:C8,B13:C14)</f>
         <v>1.0514819632987149E-14</v>
       </c>
@@ -1915,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADAB0BB-4D15-4055-A3E7-4EBC45F32B19}">
   <dimension ref="A2:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1926,21 +1985,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="169.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1951,21 +2010,21 @@
       <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
       <c r="P6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -2166,7 +2225,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="46" t="s">
         <v>58</v>
       </c>
       <c r="Q13">
@@ -2183,15 +2242,15 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
